--- a/ocms/src/test/resources/TestData/OCMSmsHostTransactionReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMSmsHostTransactionReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B975C7C-E36B-4E25-B2DF-6812AB826171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -13,9 +19,10 @@
     <sheet name="ShowInNewPageDateRange" sheetId="4" r:id="rId4"/>
     <sheet name="ExportReport" sheetId="5" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="50">
   <si>
     <t>Report Channel</t>
   </si>
@@ -42,9 +49,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -58,16 +62,176 @@
   </si>
   <si>
     <t>OCM SMS Host Transaction Report</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>14-07-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>16-07-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>15-07-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>Session  ID</t>
+  </si>
+  <si>
+    <t>Request Date Time</t>
+  </si>
+  <si>
+    <t>Transaction Name</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>Request Message</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Is after</t>
+  </si>
+  <si>
+    <t>Is after or equal to</t>
+  </si>
+  <si>
+    <t>Is before or equal to</t>
+  </si>
+  <si>
+    <t>Is before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select FORMAT([dbo].[VARCHARTODATETIME] (M.RequestDateTime),'dd/MM/yyyy HH:mm:ss') as [Request Date Time],
+FORMAT([dbo].[VARCHARTODATETIME] (M.ResponseDateTime),'dd/MM/yyyy HH:mm:ss') as [Response Date Time], 
+M.SessionID as [Session ID],M.TransactionName as [Transaction Name],M.RequestMessage as [Request Message], 
+M.ResponseMessage as [Response Message]
+from (SELECT replace(CONVERT(varchar(8),IVR_TRL.REQUEST_DATE, 112)+CONVERT(varchar(8),IVR_TRL.REQUEST_DATE, 114),':','') AS RequestDateTime,
+replace(CONVERT(varchar(8),IVR_TRL.RESPONSE_DATE, 112)+CONVERT(varchar(8),IVR_TRL.RESPONSE_DATE, 114),':','') AS ResponseDateTime,
+IVR_TRL.UCID AS SessionID, IVR_TRL.TRANSACTION_NAME AS TransactionName, 
+IVR_TRL.REQ_MESSAGE AS RequestMessage, IVR_TRL.RES_MESSAGE AS ResponseMessage FROM  IVR_TRL with(nolock) 
+INNER JOIN Notify_Processor with(nolock) ON IVR_TRL.UCID =  convert(varchar,Notify_Processor.NotifyRequestId)
+LEFT JOIN GBL_INTERACTIONHISTORY H WITH(NOLOCK) ON H.SessionID = IVR_TRL.UCID
+Where replace(CONVERT(varchar(8),IVR_TRL.RESPONSE_DATE, 112)+CONVERT(varchar(8),IVR_TRL.RESPONSE_DATE, 114),':','')&gt;='ReportBeforeDate' and 
+replace(CONVERT(varchar(8),IVR_TRL.RESPONSE_DATE, 112)+CONVERT(varchar(8),IVR_TRL.RESPONSE_DATE, 114),':','')&lt;='ReportAfterDate'
+AND H.Channel in ('SMS')) M order by M.ResponseDateTime asc;
+</t>
+  </si>
+  <si>
+    <t>01-09-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>30-09-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Response Message</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>46371</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>28-09-2020  16:02:04</t>
+  </si>
+  <si>
+    <t>28-09-2020  16:09:34</t>
+  </si>
+  <si>
+    <t>28/09/2020 13:34:44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,9 +257,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,22 +558,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,18 +587,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -424,78 +607,390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
+    <col min="8" max="8" width="29.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,18 +1004,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -529,23 +1024,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,27 +1051,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -585,22 +1080,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,18 +1109,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -634,23 +1129,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,27 +1157,227 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="20.81640625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
